--- a/Medidas/Gráfico secuencial.xlsx
+++ b/Medidas/Gráfico secuencial.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javie\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javie\Desktop\Practica_Arco_OpenMP\Medidas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E233E99B-1F31-41C0-BE86-F1380730F801}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A85FD8E5-43F5-4DD6-9818-8CB68122C906}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{60A1570A-88A3-4B11-A9B9-F4683620703A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="ordenaVector.c" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,28 +34,92 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
-    <t>sec_A</t>
+    <t>Tamaño vector</t>
   </si>
   <si>
-    <t>sec_B</t>
+    <t>Pendiente A</t>
   </si>
   <si>
-    <t>sec_C</t>
+    <t>Pendiente B</t>
   </si>
   <si>
-    <t>sec_D</t>
+    <t>Pendiente C</t>
   </si>
   <si>
-    <t>Tamaño vector</t>
+    <t>Pendiente D</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diferencias entre pendientes </t>
+  </si>
+  <si>
+    <t>FORMULA PEDIENTES</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Δ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Y/ΔX</t>
+    </r>
+  </si>
+  <si>
+    <t>Relaciones entre pendientes</t>
+  </si>
+  <si>
+    <t>ΔY = Y(i+1) - Y(i)</t>
+  </si>
+  <si>
+    <t>ΔX = X(i+1) - X(i)</t>
+  </si>
+  <si>
+    <t>Sec_A</t>
+  </si>
+  <si>
+    <t>Sec_D</t>
+  </si>
+  <si>
+    <t>Sec_C</t>
+  </si>
+  <si>
+    <t>Sec_B</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,13 +133,42 @@
       <color theme="1"/>
       <name val="Liberation Sans"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -90,13 +183,50 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -200,11 +330,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$B$1</c:f>
+              <c:f>ordenaVector.c!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>sec_A</c:v>
+                  <c:v>Sec_A</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -235,7 +365,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja1!$A$2:$A$6</c:f>
+              <c:f>ordenaVector.c!$A$2:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -243,40 +373,40 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>110</c:v>
+                  <c:v>40010</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1210</c:v>
+                  <c:v>80010</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13310</c:v>
+                  <c:v>120010</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>146410</c:v>
+                  <c:v>160010</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja1!$B$2:$B$6</c:f>
+              <c:f>ordenaVector.c!$C$2:$C$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.3200000000000002E-2</c:v>
+                  <c:v>2.4666666666666669E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.7333333333333334E-2</c:v>
+                  <c:v>597.59709999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.7219999999999998</c:v>
+                  <c:v>2409.0844999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>91.326333333333352</c:v>
+                  <c:v>5460.7996333333313</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8330.1440000000021</c:v>
+                  <c:v>9655.7741000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -284,7 +414,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-95CF-43E5-808C-2A72099ED467}"/>
+              <c16:uniqueId val="{00000000-7D4F-4ECB-95E1-79620A5AFE7D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -293,11 +423,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$C$1</c:f>
+              <c:f>ordenaVector.c!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>sec_B</c:v>
+                  <c:v>Sec_B</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -328,7 +458,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja1!$A$2:$A$6</c:f>
+              <c:f>ordenaVector.c!$A$2:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -336,40 +466,40 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>110</c:v>
+                  <c:v>40010</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1210</c:v>
+                  <c:v>80010</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13310</c:v>
+                  <c:v>120010</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>146410</c:v>
+                  <c:v>160010</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja1!$C$2:$C$6</c:f>
+              <c:f>ordenaVector.c!$E$2:$E$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>6.8333333333333328E-3</c:v>
+                  <c:v>1.4E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.5999999999999995E-2</c:v>
+                  <c:v>902.75576666666655</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.1859999999999999</c:v>
+                  <c:v>3706.2062999999994</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>104.20733333333334</c:v>
+                  <c:v>8388.8925666666673</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12990.679000000002</c:v>
+                  <c:v>15351.858733333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -377,7 +507,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-95CF-43E5-808C-2A72099ED467}"/>
+              <c16:uniqueId val="{00000001-7D4F-4ECB-95E1-79620A5AFE7D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -386,11 +516,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$D$1</c:f>
+              <c:f>ordenaVector.c!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>sec_C</c:v>
+                  <c:v>Sec_C</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -421,7 +551,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja1!$A$2:$A$6</c:f>
+              <c:f>ordenaVector.c!$A$2:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -429,40 +559,40 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>110</c:v>
+                  <c:v>40010</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1210</c:v>
+                  <c:v>80010</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13310</c:v>
+                  <c:v>120010</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>146410</c:v>
+                  <c:v>160010</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja1!$D$2:$D$6</c:f>
+              <c:f>ordenaVector.c!$G$2:$G$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>6.5666666666666677E-3</c:v>
+                  <c:v>1.7333333333333335E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.9333333333333319E-2</c:v>
+                  <c:v>4132.9932333333345</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.6026666666666651</c:v>
+                  <c:v>17339.146499999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>410.82466666666659</c:v>
+                  <c:v>39430.476566666657</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>61055.550333333318</c:v>
+                  <c:v>69662.026066666687</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -470,7 +600,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-95CF-43E5-808C-2A72099ED467}"/>
+              <c16:uniqueId val="{00000002-7D4F-4ECB-95E1-79620A5AFE7D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -479,11 +609,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$E$1</c:f>
+              <c:f>ordenaVector.c!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>sec_D</c:v>
+                  <c:v>Sec_D</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -514,7 +644,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja1!$A$2:$A$6</c:f>
+              <c:f>ordenaVector.c!$A$2:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -522,40 +652,40 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>110</c:v>
+                  <c:v>40010</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1210</c:v>
+                  <c:v>80010</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13310</c:v>
+                  <c:v>120010</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>146410</c:v>
+                  <c:v>160010</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja1!$E$2:$E$6</c:f>
+              <c:f>ordenaVector.c!$I$2:$I$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>8.8999999999999999E-3</c:v>
+                  <c:v>2.2333333333333333E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.9333333333333333E-2</c:v>
+                  <c:v>3157.0782999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.8213333333333344</c:v>
+                  <c:v>12900.741866666665</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>327.34866666666665</c:v>
+                  <c:v>29290.970733333332</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45366.348000000005</c:v>
+                  <c:v>52080.45180000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -563,7 +693,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-95CF-43E5-808C-2A72099ED467}"/>
+              <c16:uniqueId val="{00000003-7D4F-4ECB-95E1-79620A5AFE7D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -575,11 +705,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="95664448"/>
-        <c:axId val="2115281184"/>
+        <c:axId val="1475448287"/>
+        <c:axId val="1425937695"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="95664448"/>
+        <c:axId val="1475448287"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -599,6 +729,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Tamaño del vector</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -636,12 +821,12 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2115281184"/>
+        <c:crossAx val="1425937695"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2115281184"/>
+        <c:axId val="1425937695"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -661,6 +846,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Tiempo (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -698,7 +938,783 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="95664448"/>
+        <c:crossAx val="1475448287"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Pendientes ejecución ordenaVector.c</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ordenaVector.c!$Y$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pendiente A</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ordenaVector.c!$X$7:$X$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40010</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80010</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>120010</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>160010</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ordenaVector.c!$Y$7:$Y$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4939865833333331E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.5287185000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.6292878333333286E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10487436166666673</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FBFE-461A-8931-472C7DB0058D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ordenaVector.c!$Z$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pendiente B</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ordenaVector.c!$X$7:$X$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40010</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80010</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>120010</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>160010</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ordenaVector.c!$Z$7:$Z$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2568859166666663E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0086263333333315E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.11706715666666669</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.17407415416666663</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FBFE-461A-8931-472C7DB0058D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ordenaVector.c!$AA$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pendiente C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ordenaVector.c!$X$7:$X$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40010</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80010</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>120010</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>160010</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ordenaVector.c!$AA$7:$AA$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.10332478750000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.33015383166666662</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.55228325166666647</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.75578873750000075</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FBFE-461A-8931-472C7DB0058D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ordenaVector.c!$AB$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pendiente D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ordenaVector.c!$X$7:$X$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40010</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80010</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>120010</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>160010</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ordenaVector.c!$AB$7:$AB$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.892690166666666E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.24359158916666665</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.40975572166666663</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.56973702666666692</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-FBFE-461A-8931-472C7DB0058D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1381924479"/>
+        <c:axId val="1425938527"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1381924479"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Tamaño</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-ES" baseline="0"/>
+                  <a:t> de vector</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1425938527"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1425938527"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Valor</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-ES" baseline="0"/>
+                  <a:t> de la pendiente</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1381924479"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -818,6 +1834,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1334,27 +2390,543 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1009650</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Gráfico 4">
+        <xdr:cNvPr id="3" name="Gráfico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{852C0658-A8D4-44BF-B7D6-4A3FBEF49FBD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6038582-A36C-4716-AE28-0452FB714375}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1367,6 +2939,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>352424</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84E74A6D-C3D8-4C0B-BF67-6236B0B92D0C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1672,157 +3280,542 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{899CED34-36A0-4F3F-B1DC-B19163149F27}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:AB26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="D4:E5"/>
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="2" max="9" width="15.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:28">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="I1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+    </row>
+    <row r="2" spans="1:28">
+      <c r="A2" s="2">
+        <v>10</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="9">
+        <v>2.4666666666666669E-3</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="9">
+        <v>1.4E-3</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="9">
+        <v>1.7333333333333335E-3</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="9">
+        <v>2.2333333333333333E-3</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:28">
+      <c r="A3" s="2">
+        <v>40010</v>
+      </c>
+      <c r="B3" s="9">
+        <f>(C3-C2)/(A3-A2)</f>
+        <v>1.4939865833333331E-2</v>
+      </c>
+      <c r="C3" s="9">
+        <v>597.59709999999995</v>
+      </c>
+      <c r="D3" s="9">
+        <f>(E3-E2)/(A3-A2)</f>
+        <v>2.2568859166666663E-2</v>
+      </c>
+      <c r="E3" s="9">
+        <v>902.75576666666655</v>
+      </c>
+      <c r="F3" s="9">
+        <f>(G3-G2)/(A3-A2)</f>
+        <v>0.10332478750000003</v>
+      </c>
+      <c r="G3" s="9">
+        <v>4132.9932333333345</v>
+      </c>
+      <c r="H3" s="9">
+        <f>(I3-I2)/(A3-A2)</f>
+        <v>7.892690166666666E-2</v>
+      </c>
+      <c r="I3" s="9">
+        <v>3157.0782999999997</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:28">
+      <c r="A4" s="2">
+        <v>80010</v>
+      </c>
+      <c r="B4" s="9">
+        <f t="shared" ref="B4:B5" si="0">(C4-C3)/(A4-A3)</f>
+        <v>4.5287185000000001E-2</v>
+      </c>
+      <c r="C4" s="9">
+        <v>2409.0844999999999</v>
+      </c>
+      <c r="D4" s="9">
+        <f t="shared" ref="D4:D6" si="1">(E4-E3)/(A4-A3)</f>
+        <v>7.0086263333333315E-2</v>
+      </c>
+      <c r="E4" s="9">
+        <v>3706.2062999999994</v>
+      </c>
+      <c r="F4" s="9">
+        <f t="shared" ref="F4:F6" si="2">(G4-G3)/(A4-A3)</f>
+        <v>0.33015383166666662</v>
+      </c>
+      <c r="G4" s="9">
+        <v>17339.146499999999</v>
+      </c>
+      <c r="H4" s="9">
+        <f t="shared" ref="H4:H6" si="3">(I4-I3)/(A4-A3)</f>
+        <v>0.24359158916666665</v>
+      </c>
+      <c r="I4" s="9">
+        <v>12900.741866666665</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:28">
+      <c r="A5" s="2">
+        <v>120010</v>
+      </c>
+      <c r="B5" s="9">
+        <f t="shared" si="0"/>
+        <v>7.6292878333333286E-2</v>
+      </c>
+      <c r="C5" s="9">
+        <v>5460.7996333333313</v>
+      </c>
+      <c r="D5" s="9">
+        <f t="shared" si="1"/>
+        <v>0.11706715666666669</v>
+      </c>
+      <c r="E5" s="9">
+        <v>8388.8925666666673</v>
+      </c>
+      <c r="F5" s="9">
+        <f t="shared" si="2"/>
+        <v>0.55228325166666647</v>
+      </c>
+      <c r="G5" s="9">
+        <v>39430.476566666657</v>
+      </c>
+      <c r="H5" s="9">
+        <f t="shared" si="3"/>
+        <v>0.40975572166666663</v>
+      </c>
+      <c r="I5" s="9">
+        <v>29290.970733333332</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:28">
+      <c r="A6" s="2">
+        <v>160010</v>
+      </c>
+      <c r="B6" s="9">
+        <f>(C6-C5)/(A6-A5)</f>
+        <v>0.10487436166666673</v>
+      </c>
+      <c r="C6" s="9">
+        <v>9655.7741000000005</v>
+      </c>
+      <c r="D6" s="9">
+        <f t="shared" si="1"/>
+        <v>0.17407415416666663</v>
+      </c>
+      <c r="E6" s="9">
+        <v>15351.858733333333</v>
+      </c>
+      <c r="F6" s="9">
+        <f t="shared" si="2"/>
+        <v>0.75578873750000075</v>
+      </c>
+      <c r="G6" s="9">
+        <v>69662.026066666687</v>
+      </c>
+      <c r="H6" s="9">
+        <f t="shared" si="3"/>
+        <v>0.56973702666666692</v>
+      </c>
+      <c r="I6" s="9">
+        <v>52080.45180000001</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="X6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="Y6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="Z6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="AA6" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="AB6" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1">
+    <row r="7" spans="1:28">
+      <c r="A7" s="4"/>
+      <c r="B7" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="X7" s="2">
         <v>10</v>
       </c>
-      <c r="B2" s="2">
-        <v>1.3200000000000002E-2</v>
-      </c>
-      <c r="C2" s="2">
-        <v>6.8333333333333328E-3</v>
-      </c>
-      <c r="D2" s="2">
-        <v>6.5666666666666677E-3</v>
-      </c>
-      <c r="E2" s="2">
-        <v>8.8999999999999999E-3</v>
+      <c r="Y7" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="9">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1">
-        <v>110</v>
-      </c>
-      <c r="B3" s="2">
-        <v>2.7333333333333334E-2</v>
-      </c>
-      <c r="C3" s="2">
-        <v>2.5999999999999995E-2</v>
-      </c>
-      <c r="D3" s="2">
-        <v>4.9333333333333319E-2</v>
-      </c>
-      <c r="E3" s="2">
-        <v>4.9333333333333333E-2</v>
+    <row r="8" spans="1:28">
+      <c r="A8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10">
+        <f>B4-B3</f>
+        <v>3.0347319166666671E-2</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10">
+        <f t="shared" ref="D8:H8" si="4">D4-D3</f>
+        <v>4.7517404166666652E-2</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10">
+        <f t="shared" si="4"/>
+        <v>0.2268290441666666</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10">
+        <f t="shared" si="4"/>
+        <v>0.16466468749999999</v>
+      </c>
+      <c r="I8" s="10"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="X8" s="2">
+        <v>40010</v>
+      </c>
+      <c r="Y8" s="9">
+        <v>1.4939865833333331E-2</v>
+      </c>
+      <c r="Z8" s="9">
+        <v>2.2568859166666663E-2</v>
+      </c>
+      <c r="AA8" s="9">
+        <v>0.10332478750000003</v>
+      </c>
+      <c r="AB8" s="9">
+        <v>7.892690166666666E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1">
-        <v>1210</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1.7219999999999998</v>
-      </c>
-      <c r="C4" s="2">
-        <v>2.1859999999999999</v>
-      </c>
-      <c r="D4" s="2">
-        <v>5.6026666666666651</v>
-      </c>
-      <c r="E4" s="2">
-        <v>5.8213333333333344</v>
+    <row r="9" spans="1:28">
+      <c r="A9" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10">
+        <f t="shared" ref="B9:H10" si="5">B5-B4</f>
+        <v>3.1005693333333285E-2</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10">
+        <f t="shared" si="5"/>
+        <v>4.6980893333333371E-2</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10">
+        <f t="shared" si="5"/>
+        <v>0.22212941999999986</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10">
+        <f t="shared" si="5"/>
+        <v>0.16616413249999998</v>
+      </c>
+      <c r="I9" s="10"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="2">
+        <v>80010</v>
+      </c>
+      <c r="Y9" s="9">
+        <v>4.5287185000000001E-2</v>
+      </c>
+      <c r="Z9" s="9">
+        <v>7.0086263333333315E-2</v>
+      </c>
+      <c r="AA9" s="9">
+        <v>0.33015383166666662</v>
+      </c>
+      <c r="AB9" s="9">
+        <v>0.24359158916666665</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1">
-        <v>13310</v>
-      </c>
-      <c r="B5" s="2">
-        <v>91.326333333333352</v>
-      </c>
-      <c r="C5" s="2">
-        <v>104.20733333333334</v>
-      </c>
-      <c r="D5" s="2">
-        <v>410.82466666666659</v>
-      </c>
-      <c r="E5" s="2">
-        <v>327.34866666666665</v>
+    <row r="10" spans="1:28">
+      <c r="A10" s="13"/>
+      <c r="B10" s="10">
+        <f t="shared" si="5"/>
+        <v>2.8581483333333449E-2</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10">
+        <f t="shared" si="5"/>
+        <v>5.7006997499999948E-2</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10">
+        <f t="shared" si="5"/>
+        <v>0.20350548583333428</v>
+      </c>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10">
+        <f t="shared" si="5"/>
+        <v>0.1599813050000003</v>
+      </c>
+      <c r="I10" s="10"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2">
+        <v>120010</v>
+      </c>
+      <c r="Y10" s="9">
+        <v>7.6292878333333286E-2</v>
+      </c>
+      <c r="Z10" s="9">
+        <v>0.11706715666666669</v>
+      </c>
+      <c r="AA10" s="9">
+        <v>0.55228325166666647</v>
+      </c>
+      <c r="AB10" s="9">
+        <v>0.40975572166666663</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1">
-        <v>146410</v>
-      </c>
-      <c r="B6" s="2">
-        <v>8330.1440000000021</v>
-      </c>
-      <c r="C6" s="2">
-        <v>12990.679000000002</v>
-      </c>
-      <c r="D6" s="2">
-        <v>61055.550333333318</v>
-      </c>
-      <c r="E6" s="2">
-        <v>45366.348000000005</v>
+    <row r="11" spans="1:28">
+      <c r="A11" s="13"/>
+      <c r="B11" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2">
+        <v>160010</v>
+      </c>
+      <c r="Y11" s="9">
+        <v>0.10487436166666673</v>
+      </c>
+      <c r="Z11" s="9">
+        <v>0.17407415416666663</v>
+      </c>
+      <c r="AA11" s="9">
+        <v>0.75578873750000075</v>
+      </c>
+      <c r="AB11" s="9">
+        <v>0.56973702666666692</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+    <row r="12" spans="1:28">
+      <c r="A12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="10">
+        <f>B3/B4</f>
+        <v>0.32989168643035177</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="14">
+        <f t="shared" ref="D12:H12" si="6">D3/D4</f>
+        <v>0.32201544344471883</v>
+      </c>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14">
+        <f t="shared" si="6"/>
+        <v>0.31295952852765885</v>
+      </c>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14">
+        <f t="shared" si="6"/>
+        <v>0.32401324666700398</v>
+      </c>
+      <c r="I12" s="14"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="13" spans="1:28">
+      <c r="A13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="10">
+        <f t="shared" ref="B13:H14" si="7">B4/B5</f>
+        <v>0.59359649274385129</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="14">
+        <f t="shared" si="7"/>
+        <v>0.59868425379882351</v>
+      </c>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14">
+        <f t="shared" si="7"/>
+        <v>0.59779801518575248</v>
+      </c>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14">
+        <f t="shared" si="7"/>
+        <v>0.59448001891435864</v>
+      </c>
+      <c r="I13" s="14"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+    </row>
+    <row r="14" spans="1:28">
+      <c r="A14" s="6"/>
+      <c r="B14" s="10">
+        <f t="shared" si="7"/>
+        <v>0.72746929870069676</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="14">
+        <f t="shared" si="7"/>
+        <v>0.67251314376389948</v>
+      </c>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14">
+        <f t="shared" si="7"/>
+        <v>0.73073760465591209</v>
+      </c>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14">
+        <f t="shared" si="7"/>
+        <v>0.71920149558122415</v>
+      </c>
+      <c r="I14" s="14"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+    </row>
+    <row r="15" spans="1:28">
       <c r="A15" s="1"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:28">
       <c r="A16" s="1"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1"/>
@@ -1853,6 +3846,35 @@
       <c r="E26" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="27">
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="B7:I7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
